--- a/data/hotels_by_city/Dallas/Dallas_shard_617.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,393 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r561541363-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>55638</t>
+  </si>
+  <si>
+    <t>109717</t>
+  </si>
+  <si>
+    <t>561541363</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Great value! Outstanding Room!</t>
+  </si>
+  <si>
+    <t>My room was large, clean and very comfortable.  The bed was amazing.  Staff was helpful and friendly.  The breakfast was fully stocked including sausage and eggs along with the waffle machine, toast and bagels and all the other stuff the budget hotels have.  Coffee was great.  I expected less with the good price I got and was very impressed with the room and the service.  I'll be back!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r560979755-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>560979755</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>The good, the bad and the ugly</t>
+  </si>
+  <si>
+    <t>The good:The hotel is conveniently located. The room is large and clean. Staff was very friendly.The bad and the ugly:Breakfast was out by the time I got out of my room (~7:30 AM) on both days(!). No coffee, no bread, no eggs - nothing! It took the hotel staff some 15 minutes to get it ready after I complained, by which time I had to rush to my meetings.My room's bath had a large crack in its bottom that was covered by a duct tape patch, and skweeked every time I stepped on it. Not very welcoming.There was a strong, non-stopping buzzing sound in the hallway that penetrated by room and was irritating through the two days I was there. Upon checking out, I heard another guest complain about noises in HER room... So this is a pattern.MoreShow less</t>
+  </si>
+  <si>
+    <t>The good:The hotel is conveniently located. The room is large and clean. Staff was very friendly.The bad and the ugly:Breakfast was out by the time I got out of my room (~7:30 AM) on both days(!). No coffee, no bread, no eggs - nothing! It took the hotel staff some 15 minutes to get it ready after I complained, by which time I had to rush to my meetings.My room's bath had a large crack in its bottom that was covered by a duct tape patch, and skweeked every time I stepped on it. Not very welcoming.There was a strong, non-stopping buzzing sound in the hallway that penetrated by room and was irritating through the two days I was there. Upon checking out, I heard another guest complain about noises in HER room... So this is a pattern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r545118270-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>545118270</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Compares Poorly to other Quality Inns</t>
+  </si>
+  <si>
+    <t>Booked rooms for a church group of 31 for 2 nights; had an extremely difficult time getting reservations done correctly; was even hung up on three times on one occasion; spent WAY too much time on the phone on numerous calls trying to find lost reservations, etc. First morning there,  breakfast was chaotic as the ONE employee on site was answering the phone, checking people out, AND replenishing breakfast items.  Second morning, breakfast went smoothly as a second employee was on hand to take care of breakfast.  Hotel even set up a meeting room to handle our large group the second morning.  Rooms were nice enough for the price, though the elevator was not working, nor was the ice maker nearest our rooms.  Had to go across the hotel to get ice.  Not a terrible hotel, just not the experience I have come to expect from years of staying at  Quality Inns.  I would not stay there again as there are other choices in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Booked rooms for a church group of 31 for 2 nights; had an extremely difficult time getting reservations done correctly; was even hung up on three times on one occasion; spent WAY too much time on the phone on numerous calls trying to find lost reservations, etc. First morning there,  breakfast was chaotic as the ONE employee on site was answering the phone, checking people out, AND replenishing breakfast items.  Second morning, breakfast went smoothly as a second employee was on hand to take care of breakfast.  Hotel even set up a meeting room to handle our large group the second morning.  Rooms were nice enough for the price, though the elevator was not working, nor was the ice maker nearest our rooms.  Had to go across the hotel to get ice.  Not a terrible hotel, just not the experience I have come to expect from years of staying at  Quality Inns.  I would not stay there again as there are other choices in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r468630284-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>468630284</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent choice</t>
+  </si>
+  <si>
+    <t>The housekeepers provided great service throughout the entire stay. I loved everything about this hotel in general and our stay, the rooms were spacious and the check in lady was very professional. Also in the morning I noticed they had a nice variety of items for breakfast. Everything ran smoothly and the check out was pleasant just as it was with the check in.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r389935900-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>389935900</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Nice visit</t>
+  </si>
+  <si>
+    <t>This was very nice establishment! Front desk was very helpful both upon check in &amp; check out. The room was nice &amp; very roomy. We appreciated bars in the tub area. The choice at breakfast was good, would included eggs, sausage, biscuits &amp; gravy. Rooms were reasonable &amp; quiet. Highly recommend.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r386795504-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>386795504</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Discourteous manager.</t>
+  </si>
+  <si>
+    <t>Our room was not the best because it needs some updating. However, the room was clean and the air conditioning worked well.  The water smelled like mud so we had to go to the store to buy water so we could brush our teeth.  They ran out of towels and when our friends asked they were give two bath mats that are used for thr floor. TV only worked on a few channels in our room and not at all I'm our friends room. The hotel site states free wifi, the wifi did not work at all during our four days there so, was I was unable to work. When I spoke about this to the person at the front desk I was told that one of the routers was broke and would be replaced by the next day.  Did not get replaced.  Food at breakfast was mediocre at best. When checking out I,again spoke about the lack of wifi anf the fact that I was unable to work.   No apologies were given. The manager pretty much called me a liar when I complained.  I was not asking for a free night or a reduction in price, merely stating my dissatisfaction.  Told me if I had told her people they would have notified her.  Paid my entire bill and said I would  never stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Our room was not the best because it needs some updating. However, the room was clean and the air conditioning worked well.  The water smelled like mud so we had to go to the store to buy water so we could brush our teeth.  They ran out of towels and when our friends asked they were give two bath mats that are used for thr floor. TV only worked on a few channels in our room and not at all I'm our friends room. The hotel site states free wifi, the wifi did not work at all during our four days there so, was I was unable to work. When I spoke about this to the person at the front desk I was told that one of the routers was broke and would be replaced by the next day.  Did not get replaced.  Food at breakfast was mediocre at best. When checking out I,again spoke about the lack of wifi anf the fact that I was unable to work.   No apologies were given. The manager pretty much called me a liar when I complained.  I was not asking for a free night or a reduction in price, merely stating my dissatisfaction.  Told me if I had told her people they would have notified her.  Paid my entire bill and said I would  never stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r244034006-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>244034006</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Remarkable hospitality; hot breakfast; quiet &amp; clean</t>
+  </si>
+  <si>
+    <t>This hotel is just excellent. My family of 4 recently stayed here for an extended stay and it was remarkable. The owners are very honest, caring and kind people going out of their way to accommodate guest and fix any issue promptly. The staff is extremely friendly and very attentive- Marsha and Jennifer are two Southern ladies that go out of their way to make sure you feel welcomed and are completely comfortable. Breakfast is free, hot &amp; tasty- they have eggs, sausage, biscuits, gravy and waffles on the hot menu. And fruit, cereals, pastries, etc are also available every morning. If they run out the women do not hesitate to whip you up more promptly. Rooms are very clean and well stocked, the beds are extremely comfortable with nice linens and comfortable pillows. The hotel is very quiet even when fully occupied and you are sure to get quality sleep. Dogs are welcomed in one part of the hotel and there is an entire new wing which no animals or smoking is allowed in order to accommodate guest with allergies or strong preferences. This hotel is very conveniently located off the main road near the highway, close to several restaurants and fast food establishments. We could not have asked for more!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>a_chhana, Owner at Quality Inn &amp; Suites near Cleburne Conference Center, responded to this reviewResponded December 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is just excellent. My family of 4 recently stayed here for an extended stay and it was remarkable. The owners are very honest, caring and kind people going out of their way to accommodate guest and fix any issue promptly. The staff is extremely friendly and very attentive- Marsha and Jennifer are two Southern ladies that go out of their way to make sure you feel welcomed and are completely comfortable. Breakfast is free, hot &amp; tasty- they have eggs, sausage, biscuits, gravy and waffles on the hot menu. And fruit, cereals, pastries, etc are also available every morning. If they run out the women do not hesitate to whip you up more promptly. Rooms are very clean and well stocked, the beds are extremely comfortable with nice linens and comfortable pillows. The hotel is very quiet even when fully occupied and you are sure to get quality sleep. Dogs are welcomed in one part of the hotel and there is an entire new wing which no animals or smoking is allowed in order to accommodate guest with allergies or strong preferences. This hotel is very conveniently located off the main road near the highway, close to several restaurants and fast food establishments. We could not have asked for more!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r237769317-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>237769317</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Comfort Inn lives up to its name in Cleburne</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for his participation in the 2014 Spartan Beast race in Glen Rose. We booked the reservation through Booking.com, and initially had no trouble at check-in. Once we arrived in our room, my son noticed that the connecting door from the room next door did not have a working deadbolt lock. The door was hanging crookedly in the frame, &amp; although the latch appeared to be in place, we were easily able to pull the door open. We called the front desk, &amp; Kasey came &amp; checked it out. Despite all three of our efforts, none of us could get the deadbolt to catch. Kasey was very helpful in getting us moved into another room, which, aside from having to share a king bed, suited our needs fine. The room was super clean, hotel was quiet, and the staff was very attentive &amp; helpful. Bed &amp; pillows were comfy. Only other issue with the room was that the microwave fizzled when I tried to use it to warm up a heat pack for my headache. I noticed that there was a brown, burnt spot on the top inside of the oven, plus the oven was pretty old. Probably time to replace it. Fridge worked perfectly. Breakfast fare was good, especially the make-your-own waffles, which were Texas-shaped (as well they should be here in the Lone Star State!). Hotel is close to Highway 67 and to...My son and I stayed here for his participation in the 2014 Spartan Beast race in Glen Rose. We booked the reservation through Booking.com, and initially had no trouble at check-in. Once we arrived in our room, my son noticed that the connecting door from the room next door did not have a working deadbolt lock. The door was hanging crookedly in the frame, &amp; although the latch appeared to be in place, we were easily able to pull the door open. We called the front desk, &amp; Kasey came &amp; checked it out. Despite all three of our efforts, none of us could get the deadbolt to catch. Kasey was very helpful in getting us moved into another room, which, aside from having to share a king bed, suited our needs fine. The room was super clean, hotel was quiet, and the staff was very attentive &amp; helpful. Bed &amp; pillows were comfy. Only other issue with the room was that the microwave fizzled when I tried to use it to warm up a heat pack for my headache. I noticed that there was a brown, burnt spot on the top inside of the oven, plus the oven was pretty old. Probably time to replace it. Fridge worked perfectly. Breakfast fare was good, especially the make-your-own waffles, which were Texas-shaped (as well they should be here in the Lone Star State!). Hotel is close to Highway 67 and to downtown. The staff also gave great recommendations on a local eatery for dinner; the Caddo Grill. All of the staff were nice, but Kasey helped us the most. She even looked up my Choice Hotel Club number for me &amp; made sure our stay was added to it. if you want a comfortable, clean place to stay with breakfast included, this is one I can definitely recommend for your next trip to Cleburne.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>a_chhana, Owner at Quality Inn &amp; Suites near Cleburne Conference Center, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for his participation in the 2014 Spartan Beast race in Glen Rose. We booked the reservation through Booking.com, and initially had no trouble at check-in. Once we arrived in our room, my son noticed that the connecting door from the room next door did not have a working deadbolt lock. The door was hanging crookedly in the frame, &amp; although the latch appeared to be in place, we were easily able to pull the door open. We called the front desk, &amp; Kasey came &amp; checked it out. Despite all three of our efforts, none of us could get the deadbolt to catch. Kasey was very helpful in getting us moved into another room, which, aside from having to share a king bed, suited our needs fine. The room was super clean, hotel was quiet, and the staff was very attentive &amp; helpful. Bed &amp; pillows were comfy. Only other issue with the room was that the microwave fizzled when I tried to use it to warm up a heat pack for my headache. I noticed that there was a brown, burnt spot on the top inside of the oven, plus the oven was pretty old. Probably time to replace it. Fridge worked perfectly. Breakfast fare was good, especially the make-your-own waffles, which were Texas-shaped (as well they should be here in the Lone Star State!). Hotel is close to Highway 67 and to...My son and I stayed here for his participation in the 2014 Spartan Beast race in Glen Rose. We booked the reservation through Booking.com, and initially had no trouble at check-in. Once we arrived in our room, my son noticed that the connecting door from the room next door did not have a working deadbolt lock. The door was hanging crookedly in the frame, &amp; although the latch appeared to be in place, we were easily able to pull the door open. We called the front desk, &amp; Kasey came &amp; checked it out. Despite all three of our efforts, none of us could get the deadbolt to catch. Kasey was very helpful in getting us moved into another room, which, aside from having to share a king bed, suited our needs fine. The room was super clean, hotel was quiet, and the staff was very attentive &amp; helpful. Bed &amp; pillows were comfy. Only other issue with the room was that the microwave fizzled when I tried to use it to warm up a heat pack for my headache. I noticed that there was a brown, burnt spot on the top inside of the oven, plus the oven was pretty old. Probably time to replace it. Fridge worked perfectly. Breakfast fare was good, especially the make-your-own waffles, which were Texas-shaped (as well they should be here in the Lone Star State!). Hotel is close to Highway 67 and to downtown. The staff also gave great recommendations on a local eatery for dinner; the Caddo Grill. All of the staff were nice, but Kasey helped us the most. She even looked up my Choice Hotel Club number for me &amp; made sure our stay was added to it. if you want a comfortable, clean place to stay with breakfast included, this is one I can definitely recommend for your next trip to Cleburne.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r234638128-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>234638128</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Very friendly staff</t>
+  </si>
+  <si>
+    <t>My family &amp; I had 4 rooms here for a family reunion.  I called ahead and asked if my group(even though some weren't staying overnight, could use the breakfast area prior to going to dinner.  They agreed.  Kasey even made a fresh pot of coffee for us.  The hotel and staff were wonderful. I joined the Choice Hotel Club, prepaid for my room and got a great price for a large very nice room.  So, why just a 4 rating?  Breakfast. My husband &amp; I arrived at 8:15.  By 8:30 all of my family was in the breakfast area.  Breakfast is to be served until 9:00.  At 8:15 there were no eggs.  I saw the lady cracking eggs so I waited until she brought them out.  At that point there was no sausage only gravy and the eggs went quickly.  My husband &amp; I decided to make waffles instead.  He saw her bring out more eggs, but they were those processed round disks &amp; still no meat.  We had to ask twice for orange juice. She left promptly at 9:00 leaving guests waiting for her to replenish the food and juice, as well as leaving the kitchen in a mess.  This left the desk clerk having to work the breakfast area, answer the phone and tend to the front desk by herself. I would suggest to management that they extend the kitchen help to stay until 9:30am to at least...My family &amp; I had 4 rooms here for a family reunion.  I called ahead and asked if my group(even though some weren't staying overnight, could use the breakfast area prior to going to dinner.  They agreed.  Kasey even made a fresh pot of coffee for us.  The hotel and staff were wonderful. I joined the Choice Hotel Club, prepaid for my room and got a great price for a large very nice room.  So, why just a 4 rating?  Breakfast. My husband &amp; I arrived at 8:15.  By 8:30 all of my family was in the breakfast area.  Breakfast is to be served until 9:00.  At 8:15 there were no eggs.  I saw the lady cracking eggs so I waited until she brought them out.  At that point there was no sausage only gravy and the eggs went quickly.  My husband &amp; I decided to make waffles instead.  He saw her bring out more eggs, but they were those processed round disks &amp; still no meat.  We had to ask twice for orange juice. She left promptly at 9:00 leaving guests waiting for her to replenish the food and juice, as well as leaving the kitchen in a mess.  This left the desk clerk having to work the breakfast area, answer the phone and tend to the front desk by herself. I would suggest to management that they extend the kitchen help to stay until 9:30am to at least clean up. The location is just off Highway 67--30 minutes from Glen Rose or Fort Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>a_chhana, Owner at Quality Inn &amp; Suites near Cleburne Conference Center, responded to this reviewResponded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2014</t>
+  </si>
+  <si>
+    <t>My family &amp; I had 4 rooms here for a family reunion.  I called ahead and asked if my group(even though some weren't staying overnight, could use the breakfast area prior to going to dinner.  They agreed.  Kasey even made a fresh pot of coffee for us.  The hotel and staff were wonderful. I joined the Choice Hotel Club, prepaid for my room and got a great price for a large very nice room.  So, why just a 4 rating?  Breakfast. My husband &amp; I arrived at 8:15.  By 8:30 all of my family was in the breakfast area.  Breakfast is to be served until 9:00.  At 8:15 there were no eggs.  I saw the lady cracking eggs so I waited until she brought them out.  At that point there was no sausage only gravy and the eggs went quickly.  My husband &amp; I decided to make waffles instead.  He saw her bring out more eggs, but they were those processed round disks &amp; still no meat.  We had to ask twice for orange juice. She left promptly at 9:00 leaving guests waiting for her to replenish the food and juice, as well as leaving the kitchen in a mess.  This left the desk clerk having to work the breakfast area, answer the phone and tend to the front desk by herself. I would suggest to management that they extend the kitchen help to stay until 9:30am to at least...My family &amp; I had 4 rooms here for a family reunion.  I called ahead and asked if my group(even though some weren't staying overnight, could use the breakfast area prior to going to dinner.  They agreed.  Kasey even made a fresh pot of coffee for us.  The hotel and staff were wonderful. I joined the Choice Hotel Club, prepaid for my room and got a great price for a large very nice room.  So, why just a 4 rating?  Breakfast. My husband &amp; I arrived at 8:15.  By 8:30 all of my family was in the breakfast area.  Breakfast is to be served until 9:00.  At 8:15 there were no eggs.  I saw the lady cracking eggs so I waited until she brought them out.  At that point there was no sausage only gravy and the eggs went quickly.  My husband &amp; I decided to make waffles instead.  He saw her bring out more eggs, but they were those processed round disks &amp; still no meat.  We had to ask twice for orange juice. She left promptly at 9:00 leaving guests waiting for her to replenish the food and juice, as well as leaving the kitchen in a mess.  This left the desk clerk having to work the breakfast area, answer the phone and tend to the front desk by herself. I would suggest to management that they extend the kitchen help to stay until 9:30am to at least clean up. The location is just off Highway 67--30 minutes from Glen Rose or Fort Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r215899792-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>215899792</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Good Nights Rest</t>
+  </si>
+  <si>
+    <t>Stayed for one night.  Front desk staff was helpful and friendly.  Room was clean and comfortable.  Breakfast was better than most and had some variety.  Would stay again.  Easy freeway access.  Thanks for giving me rags to clean my bike.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r198947417-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>198947417</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Pretty Nice</t>
+  </si>
+  <si>
+    <t>The hotel is very nice.  The rooms are large and nicely furnished.  For the price, very luxourious.  Easy access to alot of food places and right on a major highway.  Would recommend staying here to anyone.  Staff was very nice,polite, and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>a_chhana, Owner at Quality Inn &amp; Suites near Cleburne Conference Center, responded to this reviewResponded March 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is very nice.  The rooms are large and nicely furnished.  For the price, very luxourious.  Easy access to alot of food places and right on a major highway.  Would recommend staying here to anyone.  Staff was very nice,polite, and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r187639830-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>187639830</t>
+  </si>
+  <si>
+    <t>12/14/2013</t>
+  </si>
+  <si>
+    <t>Very Cold...poor heater, terrible breakfast</t>
+  </si>
+  <si>
+    <t>We were very disappointed in this Comfort Suites.  We had stayed at one in Killeen, TX a few weeks earlier and it was great.  We had our room changed to the top floor, a quiet room.  They said they would have to turn on the heater and it would be an hour.  No problem we didn't return for till more than 4 hours later.  Te room was cold.  I immediately tried it adjust the window unit heater.  The controls wer broken.  I did manage to finally get it to blow out warm air.  I turned on the shower to warm up the room and after turning it back and forth finally got it to spray warm.- not hot water.  It took about a half hour to warm the room up.  They did leave all the extra pillows and towels I had requested..good thing too.  We had to spread towels over the bathroom floor because it was such cold tile.  The breakfast was terrible.  They had lukewarm sausage patties, even the ones she just brougHt out were lukewarm.  The biscuits were cool, the orange juice tasted strangled.  The coffee was good.  Needless to say, we'll go back to the Best Western next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We were very disappointed in this Comfort Suites.  We had stayed at one in Killeen, TX a few weeks earlier and it was great.  We had our room changed to the top floor, a quiet room.  They said they would have to turn on the heater and it would be an hour.  No problem we didn't return for till more than 4 hours later.  Te room was cold.  I immediately tried it adjust the window unit heater.  The controls wer broken.  I did manage to finally get it to blow out warm air.  I turned on the shower to warm up the room and after turning it back and forth finally got it to spray warm.- not hot water.  It took about a half hour to warm the room up.  They did leave all the extra pillows and towels I had requested..good thing too.  We had to spread towels over the bathroom floor because it was such cold tile.  The breakfast was terrible.  They had lukewarm sausage patties, even the ones she just brougHt out were lukewarm.  The biscuits were cool, the orange juice tasted strangled.  The coffee was good.  Needless to say, we'll go back to the Best Western next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r123425041-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>123425041</t>
+  </si>
+  <si>
+    <t>01/21/2012</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Spent 3 weeks here for business. Front desk staff treated me like family and we're nothing but helpful. Very clean hotel.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r83396232-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>83396232</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>Best Place To Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed in several locations here. Great Value. Great Service. Dollar for Dollar they beat out everyone else.  I usually stay at Hampton.  Other Comfort, Choice Hotels have not been as Nice as this  Hotel.  It's nice to see some owner/proprietors take pride in their business.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r38114453-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>38114453</t>
+  </si>
+  <si>
+    <t>08/18/2009</t>
+  </si>
+  <si>
+    <t>Great hotel for a small town</t>
+  </si>
+  <si>
+    <t>I lived at the Comfort Inn for over 2 weeks for a job. The rooms were very clean all the time, and the staff were some of the friendliest people I have ever met. They opened a brand new wing, which has beautiful 5 star like rooms. The internet was really fast, and they even let me borrow a Ethernet cable for my laptop.  The managers were always smiling and welcoming. It felt like home away from home and I will happily stay here in the future.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r10826946-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>10826946</t>
+  </si>
+  <si>
+    <t>11/14/2007</t>
+  </si>
+  <si>
+    <t>Poor value for price</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights while in town for a dog show event.  It is tough to find places that accept pets (even though ours are better behaved than a lot of people) so generally we are grateful but I will certainly be looking for somewhere else to stay next time we are in town.  When we checked in we were given a sheet of paper with "directions" on how to find our room (they were wrong) and a list of all of the monetary penalties if we "misbehaved" (late check out, missing items, etc).  The rooms were fairly new and clean but the elevator was broken one day (thankfully fixed within a day) and housekeeping removed our used towels but neglected to supply fresh ones when they cleaned our room.  We didn't realize this until about 11pm and when we called down for towels we were told we had to come get them ourselves.  Breakfast was mediocre &amp; restocked by the one employee who also appeared to be the only one working the front desk.  When we booked the website advised of a $10 per night pet fee, when we checked out it was $20 per night because we had 2 pets.  Could be a really nice hotel if only the service was better.  Definitely not worth the price we paid (just under $300 total for 2 weekend nights).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights while in town for a dog show event.  It is tough to find places that accept pets (even though ours are better behaved than a lot of people) so generally we are grateful but I will certainly be looking for somewhere else to stay next time we are in town.  When we checked in we were given a sheet of paper with "directions" on how to find our room (they were wrong) and a list of all of the monetary penalties if we "misbehaved" (late check out, missing items, etc).  The rooms were fairly new and clean but the elevator was broken one day (thankfully fixed within a day) and housekeeping removed our used towels but neglected to supply fresh ones when they cleaned our room.  We didn't realize this until about 11pm and when we called down for towels we were told we had to come get them ourselves.  Breakfast was mediocre &amp; restocked by the one employee who also appeared to be the only one working the front desk.  When we booked the website advised of a $10 per night pet fee, when we checked out it was $20 per night because we had 2 pets.  Could be a really nice hotel if only the service was better.  Definitely not worth the price we paid (just under $300 total for 2 weekend nights).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r5326968-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>5326968</t>
+  </si>
+  <si>
+    <t>06/08/2006</t>
+  </si>
+  <si>
+    <t>nice motel</t>
+  </si>
+  <si>
+    <t>We booked a king bed n/s room for Th &amp; Fri nights at $84/night when we couldn't get anything in Granbury.  The motel was clean and quiet, the room itself was very nice, brand new in a new wing, interior corridors on 2nd floor.  Flat screen t.v., nice showerhead, microwave &amp; mini-refrig.  The day staff was very helpful.  Breakfast o.k. - cereal, pastries, bananas, and waffles.  Do not drink the water, though, or juice or coffee - they all have a very strong chemical taste.  For the price, we would definitely stay here again, but would definitely bring bottled water &amp; our own drinks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r3547615-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>3547615</t>
+  </si>
+  <si>
+    <t>06/11/2005</t>
+  </si>
+  <si>
+    <t>think again</t>
+  </si>
+  <si>
+    <t>I booked rooms in this hotel for my extended family. There were five rooms reserved in all. Out of those five, only 2 had a good experience. One non-smoking room was so smokey, they asked to be moved. That request was met with "can't do it...already booked...go to Walmart and buy candles". Another room had a major leak in the bath ceiling, and the third room's air conditioning wouldn't work. The man working the front desk was extremely rude. Even though two of us didn't have any complaints with our rooms, for $100 a night, you expect more consistency. It is a fairly new hotel, but the maintenance is dismal. I depend on this website to help me pick out good places to stay when on vacation. That is why I decided to write this. We won't ever stay here again...think twice before you do.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked rooms in this hotel for my extended family. There were five rooms reserved in all. Out of those five, only 2 had a good experience. One non-smoking room was so smokey, they asked to be moved. That request was met with "can't do it...already booked...go to Walmart and buy candles". Another room had a major leak in the bath ceiling, and the third room's air conditioning wouldn't work. The man working the front desk was extremely rude. Even though two of us didn't have any complaints with our rooms, for $100 a night, you expect more consistency. It is a fairly new hotel, but the maintenance is dismal. I depend on this website to help me pick out good places to stay when on vacation. That is why I decided to write this. We won't ever stay here again...think twice before you do.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1032,1134 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_617.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>hwhudson</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>watergrinder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r560979755-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>The good:The hotel is conveniently located. The room is large and clean. Staff was very friendly.The bad and the ugly:Breakfast was out by the time I got out of my room (~7:30 AM) on both days(!). No coffee, no bread, no eggs - nothing! It took the hotel staff some 15 minutes to get it ready after I complained, by which time I had to rush to my meetings.My room's bath had a large crack in its bottom that was covered by a duct tape patch, and skweeked every time I stepped on it. Not very welcoming.There was a strong, non-stopping buzzing sound in the hallway that penetrated by room and was irritating through the two days I was there. Upon checking out, I heard another guest complain about noises in HER room... So this is a pattern.More</t>
   </si>
   <si>
+    <t>bethbJ9340ZK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r545118270-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>Booked rooms for a church group of 31 for 2 nights; had an extremely difficult time getting reservations done correctly; was even hung up on three times on one occasion; spent WAY too much time on the phone on numerous calls trying to find lost reservations, etc. First morning there,  breakfast was chaotic as the ONE employee on site was answering the phone, checking people out, AND replenishing breakfast items.  Second morning, breakfast went smoothly as a second employee was on hand to take care of breakfast.  Hotel even set up a meeting room to handle our large group the second morning.  Rooms were nice enough for the price, though the elevator was not working, nor was the ice maker nearest our rooms.  Had to go across the hotel to get ice.  Not a terrible hotel, just not the experience I have come to expect from years of staying at  Quality Inns.  I would not stay there again as there are other choices in town.More</t>
   </si>
   <si>
+    <t>Sergio R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r468630284-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Mary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r389935900-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Gwen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r386795504-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>Our room was not the best because it needs some updating. However, the room was clean and the air conditioning worked well.  The water smelled like mud so we had to go to the store to buy water so we could brush our teeth.  They ran out of towels and when our friends asked they were give two bath mats that are used for thr floor. TV only worked on a few channels in our room and not at all I'm our friends room. The hotel site states free wifi, the wifi did not work at all during our four days there so, was I was unable to work. When I spoke about this to the person at the front desk I was told that one of the routers was broke and would be replaced by the next day.  Did not get replaced.  Food at breakfast was mediocre at best. When checking out I,again spoke about the lack of wifi anf the fact that I was unable to work.   No apologies were given. The manager pretty much called me a liar when I complained.  I was not asking for a free night or a reduction in price, merely stating my dissatisfaction.  Told me if I had told her people they would have notified her.  Paid my entire bill and said I would  never stay at this hotel again.More</t>
   </si>
   <si>
+    <t>jennitheexplorer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r244034006-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>This hotel is just excellent. My family of 4 recently stayed here for an extended stay and it was remarkable. The owners are very honest, caring and kind people going out of their way to accommodate guest and fix any issue promptly. The staff is extremely friendly and very attentive- Marsha and Jennifer are two Southern ladies that go out of their way to make sure you feel welcomed and are completely comfortable. Breakfast is free, hot &amp; tasty- they have eggs, sausage, biscuits, gravy and waffles on the hot menu. And fruit, cereals, pastries, etc are also available every morning. If they run out the women do not hesitate to whip you up more promptly. Rooms are very clean and well stocked, the beds are extremely comfortable with nice linens and comfortable pillows. The hotel is very quiet even when fully occupied and you are sure to get quality sleep. Dogs are welcomed in one part of the hotel and there is an entire new wing which no animals or smoking is allowed in order to accommodate guest with allergies or strong preferences. This hotel is very conveniently located off the main road near the highway, close to several restaurants and fast food establishments. We could not have asked for more!!!More</t>
   </si>
   <si>
+    <t>JulieJ0122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r237769317-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>My son and I stayed here for his participation in the 2014 Spartan Beast race in Glen Rose. We booked the reservation through Booking.com, and initially had no trouble at check-in. Once we arrived in our room, my son noticed that the connecting door from the room next door did not have a working deadbolt lock. The door was hanging crookedly in the frame, &amp; although the latch appeared to be in place, we were easily able to pull the door open. We called the front desk, &amp; Kasey came &amp; checked it out. Despite all three of our efforts, none of us could get the deadbolt to catch. Kasey was very helpful in getting us moved into another room, which, aside from having to share a king bed, suited our needs fine. The room was super clean, hotel was quiet, and the staff was very attentive &amp; helpful. Bed &amp; pillows were comfy. Only other issue with the room was that the microwave fizzled when I tried to use it to warm up a heat pack for my headache. I noticed that there was a brown, burnt spot on the top inside of the oven, plus the oven was pretty old. Probably time to replace it. Fridge worked perfectly. Breakfast fare was good, especially the make-your-own waffles, which were Texas-shaped (as well they should be here in the Lone Star State!). Hotel is close to Highway 67 and to...My son and I stayed here for his participation in the 2014 Spartan Beast race in Glen Rose. We booked the reservation through Booking.com, and initially had no trouble at check-in. Once we arrived in our room, my son noticed that the connecting door from the room next door did not have a working deadbolt lock. The door was hanging crookedly in the frame, &amp; although the latch appeared to be in place, we were easily able to pull the door open. We called the front desk, &amp; Kasey came &amp; checked it out. Despite all three of our efforts, none of us could get the deadbolt to catch. Kasey was very helpful in getting us moved into another room, which, aside from having to share a king bed, suited our needs fine. The room was super clean, hotel was quiet, and the staff was very attentive &amp; helpful. Bed &amp; pillows were comfy. Only other issue with the room was that the microwave fizzled when I tried to use it to warm up a heat pack for my headache. I noticed that there was a brown, burnt spot on the top inside of the oven, plus the oven was pretty old. Probably time to replace it. Fridge worked perfectly. Breakfast fare was good, especially the make-your-own waffles, which were Texas-shaped (as well they should be here in the Lone Star State!). Hotel is close to Highway 67 and to downtown. The staff also gave great recommendations on a local eatery for dinner; the Caddo Grill. All of the staff were nice, but Kasey helped us the most. She even looked up my Choice Hotel Club number for me &amp; made sure our stay was added to it. if you want a comfortable, clean place to stay with breakfast included, this is one I can definitely recommend for your next trip to Cleburne.More</t>
   </si>
   <si>
+    <t>joann09134</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r234638128-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>My family &amp; I had 4 rooms here for a family reunion.  I called ahead and asked if my group(even though some weren't staying overnight, could use the breakfast area prior to going to dinner.  They agreed.  Kasey even made a fresh pot of coffee for us.  The hotel and staff were wonderful. I joined the Choice Hotel Club, prepaid for my room and got a great price for a large very nice room.  So, why just a 4 rating?  Breakfast. My husband &amp; I arrived at 8:15.  By 8:30 all of my family was in the breakfast area.  Breakfast is to be served until 9:00.  At 8:15 there were no eggs.  I saw the lady cracking eggs so I waited until she brought them out.  At that point there was no sausage only gravy and the eggs went quickly.  My husband &amp; I decided to make waffles instead.  He saw her bring out more eggs, but they were those processed round disks &amp; still no meat.  We had to ask twice for orange juice. She left promptly at 9:00 leaving guests waiting for her to replenish the food and juice, as well as leaving the kitchen in a mess.  This left the desk clerk having to work the breakfast area, answer the phone and tend to the front desk by herself. I would suggest to management that they extend the kitchen help to stay until 9:30am to at least...My family &amp; I had 4 rooms here for a family reunion.  I called ahead and asked if my group(even though some weren't staying overnight, could use the breakfast area prior to going to dinner.  They agreed.  Kasey even made a fresh pot of coffee for us.  The hotel and staff were wonderful. I joined the Choice Hotel Club, prepaid for my room and got a great price for a large very nice room.  So, why just a 4 rating?  Breakfast. My husband &amp; I arrived at 8:15.  By 8:30 all of my family was in the breakfast area.  Breakfast is to be served until 9:00.  At 8:15 there were no eggs.  I saw the lady cracking eggs so I waited until she brought them out.  At that point there was no sausage only gravy and the eggs went quickly.  My husband &amp; I decided to make waffles instead.  He saw her bring out more eggs, but they were those processed round disks &amp; still no meat.  We had to ask twice for orange juice. She left promptly at 9:00 leaving guests waiting for her to replenish the food and juice, as well as leaving the kitchen in a mess.  This left the desk clerk having to work the breakfast area, answer the phone and tend to the front desk by herself. I would suggest to management that they extend the kitchen help to stay until 9:30am to at least clean up. The location is just off Highway 67--30 minutes from Glen Rose or Fort Worth.More</t>
   </si>
   <si>
+    <t>jbooth2099</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r215899792-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>William B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r198947417-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -408,6 +441,9 @@
     <t>The hotel is very nice.  The rooms are large and nicely furnished.  For the price, very luxourious.  Easy access to alot of food places and right on a major highway.  Would recommend staying here to anyone.  Staff was very nice,polite, and helpful.More</t>
   </si>
   <si>
+    <t>PlayaLover19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r187639830-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -429,6 +465,9 @@
     <t>We were very disappointed in this Comfort Suites.  We had stayed at one in Killeen, TX a few weeks earlier and it was great.  We had our room changed to the top floor, a quiet room.  They said they would have to turn on the heater and it would be an hour.  No problem we didn't return for till more than 4 hours later.  Te room was cold.  I immediately tried it adjust the window unit heater.  The controls wer broken.  I did manage to finally get it to blow out warm air.  I turned on the shower to warm up the room and after turning it back and forth finally got it to spray warm.- not hot water.  It took about a half hour to warm the room up.  They did leave all the extra pillows and towels I had requested..good thing too.  We had to spread towels over the bathroom floor because it was such cold tile.  The breakfast was terrible.  They had lukewarm sausage patties, even the ones she just brougHt out were lukewarm.  The biscuits were cool, the orange juice tasted strangled.  The coffee was good.  Needless to say, we'll go back to the Best Western next time.More</t>
   </si>
   <si>
+    <t>Tom S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r123425041-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -447,6 +486,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>Mntview</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r83396232-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -462,6 +504,9 @@
     <t xml:space="preserve">I've stayed in several locations here. Great Value. Great Service. Dollar for Dollar they beat out everyone else.  I usually stay at Hampton.  Other Comfort, Choice Hotels have not been as Nice as this  Hotel.  It's nice to see some owner/proprietors take pride in their business.  </t>
   </si>
   <si>
+    <t>happytraveler512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r38114453-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -480,6 +525,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>dogdoc2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r10826946-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -501,6 +549,9 @@
     <t>We stayed here 2 nights while in town for a dog show event.  It is tough to find places that accept pets (even though ours are better behaved than a lot of people) so generally we are grateful but I will certainly be looking for somewhere else to stay next time we are in town.  When we checked in we were given a sheet of paper with "directions" on how to find our room (they were wrong) and a list of all of the monetary penalties if we "misbehaved" (late check out, missing items, etc).  The rooms were fairly new and clean but the elevator was broken one day (thankfully fixed within a day) and housekeeping removed our used towels but neglected to supply fresh ones when they cleaned our room.  We didn't realize this until about 11pm and when we called down for towels we were told we had to come get them ourselves.  Breakfast was mediocre &amp; restocked by the one employee who also appeared to be the only one working the front desk.  When we booked the website advised of a $10 per night pet fee, when we checked out it was $20 per night because we had 2 pets.  Could be a really nice hotel if only the service was better.  Definitely not worth the price we paid (just under $300 total for 2 weekend nights).More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r5326968-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -514,6 +565,9 @@
   </si>
   <si>
     <t>We booked a king bed n/s room for Th &amp; Fri nights at $84/night when we couldn't get anything in Granbury.  The motel was clean and quiet, the room itself was very nice, brand new in a new wing, interior corridors on 2nd floor.  Flat screen t.v., nice showerhead, microwave &amp; mini-refrig.  The day staff was very helpful.  Breakfast o.k. - cereal, pastries, bananas, and waffles.  Do not drink the water, though, or juice or coffee - they all have a very strong chemical taste.  For the price, we would definitely stay here again, but would definitely bring bottled water &amp; our own drinks.</t>
+  </si>
+  <si>
+    <t>ceemarie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r3547615-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
@@ -1036,43 +1090,47 @@
       <c r="A2" t="n">
         <v>39686</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>173959</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1090,50 +1148,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39686</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>173960</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1151,50 +1213,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39686</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>173961</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1214,50 +1280,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39686</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>51777</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1271,50 +1341,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39686</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>3739</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1328,50 +1402,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39686</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>117098</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1389,50 +1467,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39686</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>173962</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1444,56 +1526,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39686</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>173963</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1509,56 +1595,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39686</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>113039</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1574,56 +1664,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39686</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>78991</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1641,50 +1735,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39686</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>7195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1706,56 +1804,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39686</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>173964</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1779,50 +1881,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39686</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -1846,41 +1952,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39686</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>173965</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -1909,50 +2019,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39686</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>173966</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -1976,50 +2090,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39686</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>173967</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2043,41 +2161,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39686</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -2104,41 +2226,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39686</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>173968</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
@@ -2157,7 +2283,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_617.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_617.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>hwhudson</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r585137333-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>55638</t>
+  </si>
+  <si>
+    <t>109717</t>
+  </si>
+  <si>
+    <t>585137333</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>Room was large and staff friendly.  Pool was not in working order while I was there.  Breakfast was not good.  Waffle mix tasted horrible.  Bathtub drained very slowly and shower pressure was weak.  Price was good, however.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r577173737-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>577173737</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Great Value, Very Polite Staff and Great Room!!</t>
+  </si>
+  <si>
+    <t>The staff is very polite, friendly and helpful whether at check-in, to answer a question or at the breakfast buffet.  The breakfast buffet has hot and cold breakfast items and served at a decent hours, not too early and wasn't there too late. The rooms were very nice and large with king bed - which was very comfortable, a sofa, table, desk/chair, refrigerator/microwave, television, closet space and of course bathroom.  The towels were nice and bathrooms also were spacious.  Again, great price and great stay!!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r561541363-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
-    <t>55638</t>
-  </si>
-  <si>
-    <t>109717</t>
-  </si>
-  <si>
     <t>561541363</t>
   </si>
   <si>
@@ -177,12 +216,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>watergrinder</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r560979755-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -201,9 +234,6 @@
     <t>The good:The hotel is conveniently located. The room is large and clean. Staff was very friendly.The bad and the ugly:Breakfast was out by the time I got out of my room (~7:30 AM) on both days(!). No coffee, no bread, no eggs - nothing! It took the hotel staff some 15 minutes to get it ready after I complained, by which time I had to rush to my meetings.My room's bath had a large crack in its bottom that was covered by a duct tape patch, and skweeked every time I stepped on it. Not very welcoming.There was a strong, non-stopping buzzing sound in the hallway that penetrated by room and was irritating through the two days I was there. Upon checking out, I heard another guest complain about noises in HER room... So this is a pattern.More</t>
   </si>
   <si>
-    <t>bethbJ9340ZK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r545118270-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -228,7 +258,49 @@
     <t>Booked rooms for a church group of 31 for 2 nights; had an extremely difficult time getting reservations done correctly; was even hung up on three times on one occasion; spent WAY too much time on the phone on numerous calls trying to find lost reservations, etc. First morning there,  breakfast was chaotic as the ONE employee on site was answering the phone, checking people out, AND replenishing breakfast items.  Second morning, breakfast went smoothly as a second employee was on hand to take care of breakfast.  Hotel even set up a meeting room to handle our large group the second morning.  Rooms were nice enough for the price, though the elevator was not working, nor was the ice maker nearest our rooms.  Had to go across the hotel to get ice.  Not a terrible hotel, just not the experience I have come to expect from years of staying at  Quality Inns.  I would not stay there again as there are other choices in town.More</t>
   </si>
   <si>
-    <t>Sergio R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r506793435-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>506793435</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This hotel is a hidden jewel in Cleburne. I usually stay at the Hampton but decided to stay on the other side of town and choose the Quality. It was a great choice the room are large and very clean and the staff was great it was a real value. The only bad thing is no breakfast attendant the desk lady has to do both jobs and breakfast get empty a lot so you have to wait. I would suggest they hire a breakfast person so businesses people can get out quickly of a morning. The eggs weren't very good. I will stay here again and recommend it to my fellow workers.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>This hotel is a hidden jewel in Cleburne. I usually stay at the Hampton but decided to stay on the other side of town and choose the Quality. It was a great choice the room are large and very clean and the staff was great it was a real value. The only bad thing is no breakfast attendant the desk lady has to do both jobs and breakfast get empty a lot so you have to wait. I would suggest they hire a breakfast person so businesses people can get out quickly of a morning. The eggs weren't very good. I will stay here again and recommend it to my fellow workers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r476888108-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>476888108</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Pretty Good Value Overall</t>
+  </si>
+  <si>
+    <t>I have stayed in quite a number of Quality Inns over the years.  Most of the time I find them to be a good value for the money they charge.  The one in Cleburne is no exception.  It was clean and the bed was very comfortable.  Lots of pillows on the bed - great to ease into after a full day.  The main thing that disappointed me was the breakfast - not so much the food but rather they dinning room is very small.  There were several families with lots of children and they kept all the tables tied up for two hours - I decided to just get some food and take it back to my room - twice I went for a cup of regular coffee and the pot was empty and the attendant was no where to be found.  On the other hand - the room was clean and housekeeping do a great job. I will stay here again - probably.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I have stayed in quite a number of Quality Inns over the years.  Most of the time I find them to be a good value for the money they charge.  The one in Cleburne is no exception.  It was clean and the bed was very comfortable.  Lots of pillows on the bed - great to ease into after a full day.  The main thing that disappointed me was the breakfast - not so much the food but rather they dinning room is very small.  There were several families with lots of children and they kept all the tables tied up for two hours - I decided to just get some food and take it back to my room - twice I went for a cup of regular coffee and the pot was empty and the attendant was no where to be found.  On the other hand - the room was clean and housekeeping do a great job. I will stay here again - probably.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r468630284-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
@@ -249,9 +321,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Mary M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r389935900-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -270,9 +339,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Gwen D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r386795504-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -291,13 +357,55 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Our room was not the best because it needs some updating. However, the room was clean and the air conditioning worked well.  The water smelled like mud so we had to go to the store to buy water so we could brush our teeth.  They ran out of towels and when our friends asked they were give two bath mats that are used for thr floor. TV only worked on a few channels in our room and not at all I'm our friends room. The hotel site states free wifi, the wifi did not work at all during our four days there so, was I was unable to work. When I spoke about this to the person at the front desk I was told that one of the routers was broke and would be replaced by the next day.  Did not get replaced.  Food at breakfast was mediocre at best. When checking out I,again spoke about the lack of wifi anf the fact that I was unable to work.   No apologies were given. The manager pretty much called me a liar when I complained.  I was not asking for a free night or a reduction in price, merely stating my dissatisfaction.  Told me if I had told her people they would have notified her.  Paid my entire bill and said I would  never stay at this hotel again.More</t>
   </si>
   <si>
-    <t>jennitheexplorer</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r373448573-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>373448573</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Wonderful hospitality</t>
+  </si>
+  <si>
+    <t>I had a very comfortable stay in a room on the third floor.  I was at this property 14 months ago for another family funeral.  The staff both times were extremely accommodating in letting my family gather for light snacks after the visitation at the funeral home.  The property was very clean.  I had no problems sleeping.  They price was very good for the type of room.  They were able to place a cousin across the hall from me. Breakfast was very good &amp; plentiful even when I was there 15 minutes before the end of service.  I look forward to my next stay and hope it won't be for another funeral.  The only negative is an ice maker wasn't working and Wifi was down after a power loss in a storm a couple of days before my arrival. Otherwise, I would have rated the property "excellent".MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I had a very comfortable stay in a room on the third floor.  I was at this property 14 months ago for another family funeral.  The staff both times were extremely accommodating in letting my family gather for light snacks after the visitation at the funeral home.  The property was very clean.  I had no problems sleeping.  They price was very good for the type of room.  They were able to place a cousin across the hall from me. Breakfast was very good &amp; plentiful even when I was there 15 minutes before the end of service.  I look forward to my next stay and hope it won't be for another funeral.  The only negative is an ice maker wasn't working and Wifi was down after a power loss in a storm a couple of days before my arrival. Otherwise, I would have rated the property "excellent".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r277875018-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>277875018</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>"Good Nights Sleep and a Warm Breakfast"</t>
+  </si>
+  <si>
+    <t>Stayed here on the way to the Texas Steak Cook Off, the room was Clean, Comfortable, Quiet and Secure. Facility overall was also clean and Quiet. The pool was in bad Need of Cleaning BUT due to the recent string of BAD Weather I was not disappointed. Staff was friendly and Check in and Check out was a breeze.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>a_chhana, Manager at Quality Inn &amp; Suites near Cleburne Conference Center, responded to this reviewResponded June 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on the way to the Texas Steak Cook Off, the room was Clean, Comfortable, Quiet and Secure. Facility overall was also clean and Quiet. The pool was in bad Need of Cleaning BUT due to the recent string of BAD Weather I was not disappointed. Staff was friendly and Check in and Check out was a breeze.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r244034006-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
@@ -327,9 +435,6 @@
     <t>This hotel is just excellent. My family of 4 recently stayed here for an extended stay and it was remarkable. The owners are very honest, caring and kind people going out of their way to accommodate guest and fix any issue promptly. The staff is extremely friendly and very attentive- Marsha and Jennifer are two Southern ladies that go out of their way to make sure you feel welcomed and are completely comfortable. Breakfast is free, hot &amp; tasty- they have eggs, sausage, biscuits, gravy and waffles on the hot menu. And fruit, cereals, pastries, etc are also available every morning. If they run out the women do not hesitate to whip you up more promptly. Rooms are very clean and well stocked, the beds are extremely comfortable with nice linens and comfortable pillows. The hotel is very quiet even when fully occupied and you are sure to get quality sleep. Dogs are welcomed in one part of the hotel and there is an entire new wing which no animals or smoking is allowed in order to accommodate guest with allergies or strong preferences. This hotel is very conveniently located off the main road near the highway, close to several restaurants and fast food establishments. We could not have asked for more!!!More</t>
   </si>
   <si>
-    <t>JulieJ0122</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r237769317-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -357,9 +462,6 @@
     <t>My son and I stayed here for his participation in the 2014 Spartan Beast race in Glen Rose. We booked the reservation through Booking.com, and initially had no trouble at check-in. Once we arrived in our room, my son noticed that the connecting door from the room next door did not have a working deadbolt lock. The door was hanging crookedly in the frame, &amp; although the latch appeared to be in place, we were easily able to pull the door open. We called the front desk, &amp; Kasey came &amp; checked it out. Despite all three of our efforts, none of us could get the deadbolt to catch. Kasey was very helpful in getting us moved into another room, which, aside from having to share a king bed, suited our needs fine. The room was super clean, hotel was quiet, and the staff was very attentive &amp; helpful. Bed &amp; pillows were comfy. Only other issue with the room was that the microwave fizzled when I tried to use it to warm up a heat pack for my headache. I noticed that there was a brown, burnt spot on the top inside of the oven, plus the oven was pretty old. Probably time to replace it. Fridge worked perfectly. Breakfast fare was good, especially the make-your-own waffles, which were Texas-shaped (as well they should be here in the Lone Star State!). Hotel is close to Highway 67 and to...My son and I stayed here for his participation in the 2014 Spartan Beast race in Glen Rose. We booked the reservation through Booking.com, and initially had no trouble at check-in. Once we arrived in our room, my son noticed that the connecting door from the room next door did not have a working deadbolt lock. The door was hanging crookedly in the frame, &amp; although the latch appeared to be in place, we were easily able to pull the door open. We called the front desk, &amp; Kasey came &amp; checked it out. Despite all three of our efforts, none of us could get the deadbolt to catch. Kasey was very helpful in getting us moved into another room, which, aside from having to share a king bed, suited our needs fine. The room was super clean, hotel was quiet, and the staff was very attentive &amp; helpful. Bed &amp; pillows were comfy. Only other issue with the room was that the microwave fizzled when I tried to use it to warm up a heat pack for my headache. I noticed that there was a brown, burnt spot on the top inside of the oven, plus the oven was pretty old. Probably time to replace it. Fridge worked perfectly. Breakfast fare was good, especially the make-your-own waffles, which were Texas-shaped (as well they should be here in the Lone Star State!). Hotel is close to Highway 67 and to downtown. The staff also gave great recommendations on a local eatery for dinner; the Caddo Grill. All of the staff were nice, but Kasey helped us the most. She even looked up my Choice Hotel Club number for me &amp; made sure our stay was added to it. if you want a comfortable, clean place to stay with breakfast included, this is one I can definitely recommend for your next trip to Cleburne.More</t>
   </si>
   <si>
-    <t>joann09134</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r234638128-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -387,7 +489,58 @@
     <t>My family &amp; I had 4 rooms here for a family reunion.  I called ahead and asked if my group(even though some weren't staying overnight, could use the breakfast area prior to going to dinner.  They agreed.  Kasey even made a fresh pot of coffee for us.  The hotel and staff were wonderful. I joined the Choice Hotel Club, prepaid for my room and got a great price for a large very nice room.  So, why just a 4 rating?  Breakfast. My husband &amp; I arrived at 8:15.  By 8:30 all of my family was in the breakfast area.  Breakfast is to be served until 9:00.  At 8:15 there were no eggs.  I saw the lady cracking eggs so I waited until she brought them out.  At that point there was no sausage only gravy and the eggs went quickly.  My husband &amp; I decided to make waffles instead.  He saw her bring out more eggs, but they were those processed round disks &amp; still no meat.  We had to ask twice for orange juice. She left promptly at 9:00 leaving guests waiting for her to replenish the food and juice, as well as leaving the kitchen in a mess.  This left the desk clerk having to work the breakfast area, answer the phone and tend to the front desk by herself. I would suggest to management that they extend the kitchen help to stay until 9:30am to at least...My family &amp; I had 4 rooms here for a family reunion.  I called ahead and asked if my group(even though some weren't staying overnight, could use the breakfast area prior to going to dinner.  They agreed.  Kasey even made a fresh pot of coffee for us.  The hotel and staff were wonderful. I joined the Choice Hotel Club, prepaid for my room and got a great price for a large very nice room.  So, why just a 4 rating?  Breakfast. My husband &amp; I arrived at 8:15.  By 8:30 all of my family was in the breakfast area.  Breakfast is to be served until 9:00.  At 8:15 there were no eggs.  I saw the lady cracking eggs so I waited until she brought them out.  At that point there was no sausage only gravy and the eggs went quickly.  My husband &amp; I decided to make waffles instead.  He saw her bring out more eggs, but they were those processed round disks &amp; still no meat.  We had to ask twice for orange juice. She left promptly at 9:00 leaving guests waiting for her to replenish the food and juice, as well as leaving the kitchen in a mess.  This left the desk clerk having to work the breakfast area, answer the phone and tend to the front desk by herself. I would suggest to management that they extend the kitchen help to stay until 9:30am to at least clean up. The location is just off Highway 67--30 minutes from Glen Rose or Fort Worth.More</t>
   </si>
   <si>
-    <t>jbooth2099</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r230330073-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>230330073</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Exceptional service!</t>
+  </si>
+  <si>
+    <t>My husband, myself and my son were there on business for 5 days and I can not emphasis how clean this hotel was. What impressed me the most was the fact that they swept and mopped daily. Not many hotels go the extra mile. The cleaning staff was polite and management was professional.  I will most definitely stay here again when I visit Cleburne. Thank you Yaya.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>a_chhana, Owner at Quality Inn &amp; Suites near Cleburne Conference Center, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>My husband, myself and my son were there on business for 5 days and I can not emphasis how clean this hotel was. What impressed me the most was the fact that they swept and mopped daily. Not many hotels go the extra mile. The cleaning staff was polite and management was professional.  I will most definitely stay here again when I visit Cleburne. Thank you Yaya.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r221171381-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>221171381</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Excellent place for disabled people</t>
+  </si>
+  <si>
+    <t>I had a reservation at the Days Inn and the room was not suitable for the disability that I deal with so I called the Comfort Inn.  The lady did not know the room to be able to answer my questions, but she took the time to go look at the room to answer my questions, and called me back.  it was midnight and the room had exactly what I needed.  There was an accident in the middle of the night that knocked down a telephone pole and all the power was out of the 3 hotels that night.  Power was not restored as they had hoped for and I was on the 2nd floor with no elevator to get down.  The manager was very concerned and offered to buy us breakfast somewhere else and bring it back since they couldn't serve their breakfast.  I waited till 11am hoping power would be restored but the room got quite warm with no AC and the heat was starting to affect me.  I was unable to take 2 flights of steps to get down so the manager called the fire dept to have them carry me down.  Her concern was so touching.  The Days Inn didn't do a thing to try to make the situation right.  Not even make a call to the nearby hotels for vacancy.   Their service is genuine and I the room was a much nicer room.  The desk...I had a reservation at the Days Inn and the room was not suitable for the disability that I deal with so I called the Comfort Inn.  The lady did not know the room to be able to answer my questions, but she took the time to go look at the room to answer my questions, and called me back.  it was midnight and the room had exactly what I needed.  There was an accident in the middle of the night that knocked down a telephone pole and all the power was out of the 3 hotels that night.  Power was not restored as they had hoped for and I was on the 2nd floor with no elevator to get down.  The manager was very concerned and offered to buy us breakfast somewhere else and bring it back since they couldn't serve their breakfast.  I waited till 11am hoping power would be restored but the room got quite warm with no AC and the heat was starting to affect me.  I was unable to take 2 flights of steps to get down so the manager called the fire dept to have them carry me down.  Her concern was so touching.  The Days Inn didn't do a thing to try to make the situation right.  Not even make a call to the nearby hotels for vacancy.   Their service is genuine and I the room was a much nicer room.  The desk had a chair and another chair in the corner by the window.  i would stay there again without hesitation.  My only suggestion is to convert 2 of your 1st floor rooms to be the same as the one on the second floor.  If I had to get out in an emergency, the time it takes to get somebody like me down the steps could be the difference between life and death.  Hats off to the fire dept too!!  I felt like a cat stuck in the tree....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>a_chhana, Owner at Quality Inn &amp; Suites near Cleburne Conference Center, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>I had a reservation at the Days Inn and the room was not suitable for the disability that I deal with so I called the Comfort Inn.  The lady did not know the room to be able to answer my questions, but she took the time to go look at the room to answer my questions, and called me back.  it was midnight and the room had exactly what I needed.  There was an accident in the middle of the night that knocked down a telephone pole and all the power was out of the 3 hotels that night.  Power was not restored as they had hoped for and I was on the 2nd floor with no elevator to get down.  The manager was very concerned and offered to buy us breakfast somewhere else and bring it back since they couldn't serve their breakfast.  I waited till 11am hoping power would be restored but the room got quite warm with no AC and the heat was starting to affect me.  I was unable to take 2 flights of steps to get down so the manager called the fire dept to have them carry me down.  Her concern was so touching.  The Days Inn didn't do a thing to try to make the situation right.  Not even make a call to the nearby hotels for vacancy.   Their service is genuine and I the room was a much nicer room.  The desk...I had a reservation at the Days Inn and the room was not suitable for the disability that I deal with so I called the Comfort Inn.  The lady did not know the room to be able to answer my questions, but she took the time to go look at the room to answer my questions, and called me back.  it was midnight and the room had exactly what I needed.  There was an accident in the middle of the night that knocked down a telephone pole and all the power was out of the 3 hotels that night.  Power was not restored as they had hoped for and I was on the 2nd floor with no elevator to get down.  The manager was very concerned and offered to buy us breakfast somewhere else and bring it back since they couldn't serve their breakfast.  I waited till 11am hoping power would be restored but the room got quite warm with no AC and the heat was starting to affect me.  I was unable to take 2 flights of steps to get down so the manager called the fire dept to have them carry me down.  Her concern was so touching.  The Days Inn didn't do a thing to try to make the situation right.  Not even make a call to the nearby hotels for vacancy.   Their service is genuine and I the room was a much nicer room.  The desk had a chair and another chair in the corner by the window.  i would stay there again without hesitation.  My only suggestion is to convert 2 of your 1st floor rooms to be the same as the one on the second floor.  If I had to get out in an emergency, the time it takes to get somebody like me down the steps could be the difference between life and death.  Hats off to the fire dept too!!  I felt like a cat stuck in the tree....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r215899792-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
@@ -411,9 +564,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>William B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r198947417-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -441,9 +591,6 @@
     <t>The hotel is very nice.  The rooms are large and nicely furnished.  For the price, very luxourious.  Easy access to alot of food places and right on a major highway.  Would recommend staying here to anyone.  Staff was very nice,polite, and helpful.More</t>
   </si>
   <si>
-    <t>PlayaLover19</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r187639830-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -465,7 +612,37 @@
     <t>We were very disappointed in this Comfort Suites.  We had stayed at one in Killeen, TX a few weeks earlier and it was great.  We had our room changed to the top floor, a quiet room.  They said they would have to turn on the heater and it would be an hour.  No problem we didn't return for till more than 4 hours later.  Te room was cold.  I immediately tried it adjust the window unit heater.  The controls wer broken.  I did manage to finally get it to blow out warm air.  I turned on the shower to warm up the room and after turning it back and forth finally got it to spray warm.- not hot water.  It took about a half hour to warm the room up.  They did leave all the extra pillows and towels I had requested..good thing too.  We had to spread towels over the bathroom floor because it was such cold tile.  The breakfast was terrible.  They had lukewarm sausage patties, even the ones she just brougHt out were lukewarm.  The biscuits were cool, the orange juice tasted strangled.  The coffee was good.  Needless to say, we'll go back to the Best Western next time.More</t>
   </si>
   <si>
-    <t>Tom S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r160747997-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>160747997</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I stayed one night (really just a couple hours) on a business trip. I was getting in to town very late due to a delayed flight. I used a google map phone gps to take me to the hotel and was surprised to find myself at the town courthouse when the phone told me I had reached my destination. I called the hotel because I had no other way to find the hotel. The woman at the desk was incredibly helpful and talked me back to the hotel which I had missed miles ago. She said she has received that comment often. I still need to report the problem to google and try and get the destination fixed.I wasn't overly impressed with the room itself. Everything was perfectly clean and comfortable it's just somewhat outdated. I took a quick shower (low water pressure and not as hot as I would like) and absolutely crashed. I was out again very early in the morning. The staff I encountered was very friendly and breakfast was good even though I needed to grab and go. While the facility didn't over the top impress me, it was still perfectly clean, safe, and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I stayed one night (really just a couple hours) on a business trip. I was getting in to town very late due to a delayed flight. I used a google map phone gps to take me to the hotel and was surprised to find myself at the town courthouse when the phone told me I had reached my destination. I called the hotel because I had no other way to find the hotel. The woman at the desk was incredibly helpful and talked me back to the hotel which I had missed miles ago. She said she has received that comment often. I still need to report the problem to google and try and get the destination fixed.I wasn't overly impressed with the room itself. Everything was perfectly clean and comfortable it's just somewhat outdated. I took a quick shower (low water pressure and not as hot as I would like) and absolutely crashed. I was out again very early in the morning. The staff I encountered was very friendly and breakfast was good even though I needed to grab and go. While the facility didn't over the top impress me, it was still perfectly clean, safe, and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r159498137-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>159498137</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r123425041-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
@@ -486,9 +663,6 @@
     <t>March 2011</t>
   </si>
   <si>
-    <t>Mntview</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r83396232-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -504,9 +678,6 @@
     <t xml:space="preserve">I've stayed in several locations here. Great Value. Great Service. Dollar for Dollar they beat out everyone else.  I usually stay at Hampton.  Other Comfort, Choice Hotels have not been as Nice as this  Hotel.  It's nice to see some owner/proprietors take pride in their business.  </t>
   </si>
   <si>
-    <t>happytraveler512</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r38114453-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -525,7 +696,43 @@
     <t>June 2009</t>
   </si>
   <si>
-    <t>dogdoc2001</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r23442475-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>23442475</t>
+  </si>
+  <si>
+    <t>01/10/2009</t>
+  </si>
+  <si>
+    <t>Could be smoking, could be pets--no guarantee, no satisfaction</t>
+  </si>
+  <si>
+    <t>Came to Cleburne for family wedding.  Was promised room in a 'brand new non-smoking, no-pets wing'.  My wife has a serious asthma condition, so we check those details beforehand.Returning from the wedding, there was a distinct smoke smell in the room, and there were no sheets on the sleeper sofa.  The front desk was not prompt in providing sheets.  They also advised that they knew the offending party upstairs and would talk to them.  Smoke continued throughout the night, apparently coming in from a bathroom vent.Upon checkout, the clerk said they would charge the offending smoking party a 30% fee for smoking, but would not extend any discount (now or later) to us.We wrote to Choice Hotels and never received any acknowledgement.  Stay at this hotel completely at your own risk.  Local and franchise management are no help at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>Came to Cleburne for family wedding.  Was promised room in a 'brand new non-smoking, no-pets wing'.  My wife has a serious asthma condition, so we check those details beforehand.Returning from the wedding, there was a distinct smoke smell in the room, and there were no sheets on the sleeper sofa.  The front desk was not prompt in providing sheets.  They also advised that they knew the offending party upstairs and would talk to them.  Smoke continued throughout the night, apparently coming in from a bathroom vent.Upon checkout, the clerk said they would charge the offending smoking party a 30% fee for smoking, but would not extend any discount (now or later) to us.We wrote to Choice Hotels and never received any acknowledgement.  Stay at this hotel completely at your own risk.  Local and franchise management are no help at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r10938109-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>10938109</t>
+  </si>
+  <si>
+    <t>11/20/2007</t>
+  </si>
+  <si>
+    <t>Great stay for the price</t>
+  </si>
+  <si>
+    <t>Cleburne has few choices for hotels.  The hotel had minimal reviews so I was leery of staying here, but I took a chance. The hotel was very clean and smelled great. I only stayed one night but the hotel staff were very friendly when I checked in.  The room and bathroom was very clean. I would highly recommend this hotel to anyone who is staying in Cleburne.</t>
+  </si>
+  <si>
+    <t>November 2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r10826946-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
@@ -543,15 +750,9 @@
     <t>We stayed here 2 nights while in town for a dog show event.  It is tough to find places that accept pets (even though ours are better behaved than a lot of people) so generally we are grateful but I will certainly be looking for somewhere else to stay next time we are in town.  When we checked in we were given a sheet of paper with "directions" on how to find our room (they were wrong) and a list of all of the monetary penalties if we "misbehaved" (late check out, missing items, etc).  The rooms were fairly new and clean but the elevator was broken one day (thankfully fixed within a day) and housekeeping removed our used towels but neglected to supply fresh ones when they cleaned our room.  We didn't realize this until about 11pm and when we called down for towels we were told we had to come get them ourselves.  Breakfast was mediocre &amp; restocked by the one employee who also appeared to be the only one working the front desk.  When we booked the website advised of a $10 per night pet fee, when we checked out it was $20 per night because we had 2 pets.  Could be a really nice hotel if only the service was better.  Definitely not worth the price we paid (just under $300 total for 2 weekend nights).MoreShow less</t>
   </si>
   <si>
-    <t>November 2007</t>
-  </si>
-  <si>
     <t>We stayed here 2 nights while in town for a dog show event.  It is tough to find places that accept pets (even though ours are better behaved than a lot of people) so generally we are grateful but I will certainly be looking for somewhere else to stay next time we are in town.  When we checked in we were given a sheet of paper with "directions" on how to find our room (they were wrong) and a list of all of the monetary penalties if we "misbehaved" (late check out, missing items, etc).  The rooms were fairly new and clean but the elevator was broken one day (thankfully fixed within a day) and housekeeping removed our used towels but neglected to supply fresh ones when they cleaned our room.  We didn't realize this until about 11pm and when we called down for towels we were told we had to come get them ourselves.  Breakfast was mediocre &amp; restocked by the one employee who also appeared to be the only one working the front desk.  When we booked the website advised of a $10 per night pet fee, when we checked out it was $20 per night because we had 2 pets.  Could be a really nice hotel if only the service was better.  Definitely not worth the price we paid (just under $300 total for 2 weekend nights).More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r5326968-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -565,9 +766,6 @@
   </si>
   <si>
     <t>We booked a king bed n/s room for Th &amp; Fri nights at $84/night when we couldn't get anything in Granbury.  The motel was clean and quiet, the room itself was very nice, brand new in a new wing, interior corridors on 2nd floor.  Flat screen t.v., nice showerhead, microwave &amp; mini-refrig.  The day staff was very helpful.  Breakfast o.k. - cereal, pastries, bananas, and waffles.  Do not drink the water, though, or juice or coffee - they all have a very strong chemical taste.  For the price, we would definitely stay here again, but would definitely bring bottled water &amp; our own drinks.</t>
-  </si>
-  <si>
-    <t>ceemarie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d109717-r3547615-Quality_Inn_Suites_near_Cleburne_Conference_Center-Cleburne_Texas.html</t>
@@ -1090,57 +1288,55 @@
       <c r="A2" t="n">
         <v>39686</v>
       </c>
-      <c r="B2" t="n">
-        <v>173959</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1148,64 +1344,60 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39686</v>
       </c>
-      <c r="B3" t="n">
-        <v>173960</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1213,66 +1405,60 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39686</v>
       </c>
-      <c r="B4" t="n">
-        <v>173961</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1280,454 +1466,416 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39686</v>
       </c>
-      <c r="B5" t="n">
-        <v>51777</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39686</v>
       </c>
-      <c r="B6" t="n">
-        <v>3739</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39686</v>
       </c>
-      <c r="B7" t="n">
-        <v>117098</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39686</v>
       </c>
-      <c r="B8" t="n">
-        <v>173962</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X8" t="s">
-        <v>101</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39686</v>
       </c>
-      <c r="B9" t="n">
-        <v>173963</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" t="s">
-        <v>111</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39686</v>
       </c>
-      <c r="B10" t="n">
-        <v>113039</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>120</v>
-      </c>
-      <c r="X10" t="s">
-        <v>121</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39686</v>
       </c>
-      <c r="B11" t="n">
-        <v>78991</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1735,280 +1883,246 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39686</v>
       </c>
-      <c r="B12" t="n">
-        <v>7195</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>138</v>
-      </c>
-      <c r="X12" t="s">
-        <v>139</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39686</v>
       </c>
-      <c r="B13" t="n">
-        <v>173964</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39686</v>
       </c>
-      <c r="B14" t="n">
-        <v>3631</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39686</v>
       </c>
-      <c r="B15" t="n">
-        <v>173965</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2016,274 +2130,1044 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39686</v>
       </c>
-      <c r="B16" t="n">
-        <v>173966</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39686</v>
       </c>
-      <c r="B17" t="n">
-        <v>173967</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39686</v>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>4</v>
       </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39686</v>
       </c>
-      <c r="B19" t="n">
-        <v>173968</v>
-      </c>
-      <c r="C19" t="s">
-        <v>183</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>181</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
         <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39686</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
